--- a/documentation/scrum.xlsx
+++ b/documentation/scrum.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Retrospective" sheetId="3" r:id="rId3"/>
     <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Product Backlog Items-Prototipo de Realidad Aumentada</t>
   </si>
@@ -52,12 +52,6 @@
     <t>Sprint 01</t>
   </si>
   <si>
-    <t>walter</t>
-  </si>
-  <si>
-    <t>TOTAL:</t>
-  </si>
-  <si>
     <t>SPRINT</t>
   </si>
   <si>
@@ -73,76 +67,7 @@
     <t>Retrospective</t>
   </si>
   <si>
-    <t>Terminado</t>
-  </si>
-  <si>
-    <t>ambos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coordinar con diseño grafico </t>
-  </si>
-  <si>
     <t>Product Backlog Items-Aplicación Exposicion</t>
-  </si>
-  <si>
-    <t>Adaptar proyecto de cloud recog de jebus</t>
-  </si>
-  <si>
-    <t>Testear la apk</t>
-  </si>
-  <si>
-    <t>Definir la aplicación</t>
-  </si>
-  <si>
-    <t>Creacion y configuracion de repositorio git</t>
-  </si>
-  <si>
-    <t>Subir logos de las empresas a la nube</t>
-  </si>
-  <si>
-    <t>Crear script de pantalla</t>
-  </si>
-  <si>
-    <t>Se debe obtener un boceto de la aplicación.</t>
-  </si>
-  <si>
-    <t>Se debe crear la estructura base de repositorio y comprenderlo.</t>
-  </si>
-  <si>
-    <t>Se debe obtener el splash, icono, box, boton link a pagina, boton volver, boton volver a intentar y about.</t>
-  </si>
-  <si>
-    <t>Definir y recopilar info de las empresas</t>
-  </si>
-  <si>
-    <t>Se tiene el nombre, direccion, email, ¿Qué hacemos? de cada una. Logo en buena calidad (4 estrellas minimo)</t>
-  </si>
-  <si>
-    <t>Se debe tener los logos en la nube.</t>
-  </si>
-  <si>
-    <t>Investigar y probar como traer el logo desde la nube</t>
-  </si>
-  <si>
-    <t>Se debe tener funcionando el script con una pantalla vistosa.</t>
-  </si>
-  <si>
-    <t>Se debe obtener el script.</t>
-  </si>
-  <si>
-    <t>Se debe subir al repo y configurarlo.</t>
-  </si>
-  <si>
-    <t>Agregar scripts de about, salida, iconos, box, etc…</t>
-  </si>
-  <si>
-    <t>Se debe tener en funcionamiento los scipts y la apk generada.</t>
-  </si>
-  <si>
-    <t>Se debe generar casos de prueba y ejecutarlos.</t>
-  </si>
-  <si>
-    <t>jose</t>
   </si>
   <si>
     <t>Inicio: 26/09/14</t>
@@ -158,8 +83,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,27 +478,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -627,15 +531,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -645,19 +540,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -684,6 +569,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,7 +704,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -814,7 +738,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -990,14 +913,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
@@ -1005,15 +928,15 @@
     <col min="4" max="4" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A1" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+    </row>
+    <row r="2" spans="1:4" ht="30.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1027,420 +950,380 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A3" s="23">
         <v>0</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30">
+      <c r="B3" s="45"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
+      <c r="B4" s="45"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A5" s="23">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="56">
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A6" s="46">
         <v>3</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A7" s="46">
         <v>4</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A8" s="46">
         <v>5</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A9" s="46">
         <v>6</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A10" s="46">
         <v>7</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A11" s="46">
         <v>8</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A12" s="23">
         <v>9</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A24" s="33"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A25" s="33"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A26" s="33"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="33"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="F42" s="41"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
+      <c r="A28" s="33"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="33"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="33"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="33"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="33"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="33"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="33"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="33"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="33"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="33"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="33"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="33"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="33"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="33"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="F42" s="34"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="33"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="33"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="20"/>
-      <c r="B58" s="40"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
+      <c r="A59" s="34"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+    </row>
+    <row r="60" spans="1:4">
       <c r="B60" s="20"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="41"/>
+    <row r="61" spans="1:4">
+      <c r="B61" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1452,14 +1335,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
@@ -1471,20 +1354,20 @@
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:9" ht="30.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1500,154 +1383,109 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="46" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="30">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="56">
-        <v>3</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>31</v>
-      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="56">
-        <v>4</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>26</v>
-      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="56">
-        <v>5</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>22</v>
-      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="7"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9">
-        <f ca="1">SUM(D8:FD143)</f>
-        <v>0</v>
-      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="44"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="50"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -1655,8 +1493,8 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+    <row r="12" spans="1:9">
+      <c r="A12" s="50"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -1664,8 +1502,8 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+    <row r="13" spans="1:9">
+      <c r="A13" s="50"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -1673,8 +1511,8 @@
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+    <row r="14" spans="1:9">
+      <c r="A14" s="50"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -1682,8 +1520,8 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+    <row r="15" spans="1:9">
+      <c r="A15" s="50"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -1691,18 +1529,18 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="50"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-      <c r="I16" s="41"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="50"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -1710,8 +1548,8 @@
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+    <row r="18" spans="1:9">
+      <c r="A18" s="50"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -1719,45 +1557,45 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+    <row r="19" spans="1:9">
+      <c r="A19" s="50"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="41"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+    <row r="20" spans="1:9">
+      <c r="A20" s="50"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="47"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="50"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="60"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
+    <row r="23" spans="1:9">
+      <c r="A23" s="51"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="19"/>
@@ -1765,8 +1603,8 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
+    <row r="24" spans="1:9">
+      <c r="A24" s="51"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="19"/>
@@ -1774,8 +1612,8 @@
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
+    <row r="25" spans="1:9">
+      <c r="A25" s="51"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="19"/>
@@ -1783,8 +1621,8 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
+    <row r="26" spans="1:9">
+      <c r="A26" s="51"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -1792,329 +1630,329 @@
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
+    <row r="27" spans="1:9">
+      <c r="A27" s="51"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
+    <row r="28" spans="1:9">
+      <c r="A28" s="51"/>
       <c r="B28" s="21"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
+    <row r="29" spans="1:9">
+      <c r="A29" s="51"/>
       <c r="B29" s="21"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
+    <row r="30" spans="1:9">
+      <c r="A30" s="51"/>
       <c r="B30" s="21"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
+    <row r="31" spans="1:9">
+      <c r="A31" s="51"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="51"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="51"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
+    <row r="34" spans="1:7">
+      <c r="A34" s="51"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="47"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="50"/>
       <c r="B36" s="21"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
+    <row r="37" spans="1:7">
+      <c r="A37" s="51"/>
       <c r="B37" s="21"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="51"/>
       <c r="B38" s="21"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="41"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="51"/>
       <c r="B39" s="21"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="41"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="34"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="51"/>
       <c r="B40" s="21"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="41"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="51"/>
       <c r="B41" s="21"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="41"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
+    <row r="42" spans="1:7">
+      <c r="A42" s="51"/>
       <c r="B42" s="21"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="41"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
+    <row r="43" spans="1:7">
+      <c r="A43" s="51"/>
       <c r="B43" s="21"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
+    <row r="44" spans="1:7">
+      <c r="A44" s="51"/>
       <c r="B44" s="21"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="51"/>
       <c r="B45" s="21"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="51"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
       <c r="G46" s="21"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
+    <row r="47" spans="1:7">
+      <c r="A47" s="51"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="47"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="50"/>
       <c r="B49" s="21"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
+    <row r="50" spans="1:7">
+      <c r="A50" s="51"/>
       <c r="B50" s="21"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
+    <row r="51" spans="1:7">
+      <c r="A51" s="51"/>
       <c r="B51" s="21"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="41"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="34"/>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
+    <row r="52" spans="1:7">
+      <c r="A52" s="51"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="41"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
+    <row r="53" spans="1:7">
+      <c r="A53" s="51"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="41"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="34"/>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
+    <row r="54" spans="1:7">
+      <c r="A54" s="51"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="41"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
+    <row r="55" spans="1:7">
+      <c r="A55" s="51"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="41"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
+    <row r="56" spans="1:7">
+      <c r="A56" s="51"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
+    <row r="57" spans="1:7">
+      <c r="A57" s="51"/>
       <c r="B57" s="21"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="51"/>
       <c r="B58" s="21"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="51"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
       <c r="G59" s="21"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
+    <row r="60" spans="1:7">
+      <c r="A60" s="51"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2133,14 +1971,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
@@ -2148,31 +1986,31 @@
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="24" thickBot="1">
+      <c r="A1" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" thickBot="1">
       <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" ht="48" thickBot="1">
       <c r="A3" s="11" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -2187,30 +2025,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="44.140625" customWidth="1"/>
     <col min="5" max="5" width="109.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
+    </row>
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
